--- a/Week 2/SE1606_SWP391_OnlineShop_Backlog_W2.xlsx
+++ b/Week 2/SE1606_SWP391_OnlineShop_Backlog_W2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\SWP391\Week 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhvo\Desktop\SE1606_SWP391_OnlineShop_W2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4961A1-E5D3-4D12-B43B-5CCAEC8C7980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="345" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -20,14 +21,14 @@
     <sheet name="Iteration 4" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Iteration 2'!$A$8:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Iteration 2'!$A$8:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Iteration 3'!$A$8:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Iteration 4'!$A$8:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="145">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -530,11 +531,29 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>VoNVAHE151420</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>code thêm chức năng quên MK</t>
+  </si>
+  <si>
+    <t>HungNMHE151211</t>
+  </si>
+  <si>
+    <t>DucLMHE140328</t>
+  </si>
+  <si>
+    <t>IT2 -&gt; IT1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -771,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,11 +889,12 @@
     <xf numFmtId="1" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{962DD808-D234-E447-A3DA-EC3FA1D4FD3F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1580,36 +1600,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB98B27F-7219-5146-AEA2-213319431025}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1623,7 +1643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1632,7 +1652,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1641,7 +1661,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1650,7 +1670,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1659,7 +1679,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1668,7 +1688,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1677,7 +1697,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1687,65 +1707,65 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10"/>
+  <autoFilter ref="A3:C10" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FD9986-9B81-BC45-A69A-43ECFCC07D8B}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +1788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -1792,7 +1812,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -1816,7 +1836,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -1840,7 +1860,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -1864,7 +1884,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -1888,7 +1908,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -1912,7 +1932,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -1936,7 +1956,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -1960,7 +1980,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -1984,7 +2004,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -2008,7 +2028,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -2032,7 +2052,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
@@ -2056,7 +2076,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -2080,7 +2100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
@@ -2104,7 +2124,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>73</v>
       </c>
@@ -2128,7 +2148,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>74</v>
       </c>
@@ -2152,7 +2172,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>75</v>
       </c>
@@ -2176,7 +2196,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
@@ -2200,7 +2220,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>77</v>
       </c>
@@ -2224,7 +2244,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>78</v>
       </c>
@@ -2248,7 +2268,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>79</v>
       </c>
@@ -2272,7 +2292,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>80</v>
       </c>
@@ -2296,7 +2316,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>81</v>
       </c>
@@ -2320,7 +2340,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>82</v>
       </c>
@@ -2344,7 +2364,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>83</v>
       </c>
@@ -2368,7 +2388,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>84</v>
       </c>
@@ -2392,7 +2412,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>85</v>
       </c>
@@ -2416,7 +2436,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>86</v>
       </c>
@@ -2440,7 +2460,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>87</v>
       </c>
@@ -2464,7 +2484,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>88</v>
       </c>
@@ -2488,7 +2508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>89</v>
       </c>
@@ -2512,7 +2532,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>90</v>
       </c>
@@ -2533,10 +2553,10 @@
         <v>102</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>91</v>
       </c>
@@ -2557,10 +2577,10 @@
         <v>103</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>92</v>
       </c>
@@ -2584,7 +2604,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>93</v>
       </c>
@@ -2608,7 +2628,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>94</v>
       </c>
@@ -2633,14 +2653,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44">
-    <sortState ref="A9:G44">
+  <autoFilter ref="A8:G44" xr:uid="{03FD9986-9B81-BC45-A69A-43ECFCC07D8B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{3325CDC9-7B37-438D-ABB6-722DE58A021D}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2651,58 +2671,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="16" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="23" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="23" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="23"/>
+    <col min="1" max="1" width="4.77734375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="23" customWidth="1"/>
+    <col min="9" max="229" width="8.77734375" style="23" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -2728,7 +2748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -2744,13 +2764,17 @@
       <c r="E9" s="31">
         <v>60</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="37" t="s">
+        <v>142</v>
+      </c>
       <c r="G9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -2766,13 +2790,15 @@
       <c r="E10" s="31">
         <v>120</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="37" t="s">
+        <v>142</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -2788,27 +2814,29 @@
       <c r="E11" s="31">
         <v>240</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G11" s="5" t="s">
         <v>138</v>
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>2</v>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E12" s="31">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="5" t="s">
@@ -2816,21 +2844,21 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="E13" s="31">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="5" t="s">
@@ -2838,21 +2866,21 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>2</v>
+      <c r="D14" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E14" s="31">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="5" t="s">
@@ -2860,36 +2888,41 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="35">
+        <f t="shared" ref="E15" si="0">IF(D15="Complex", 240, IF(D15="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="G15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="33"/>
+        <v>140</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F14" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{83A035EB-9A66-464E-89EA-EDE8672A38C5}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{87586766-5E28-254B-B022-5E1E8820EF2F}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2900,57 +2933,57 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E02CF8-FB3D-DF4A-9262-C19A1859D225}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -2976,7 +3009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -2999,7 +3032,7 @@
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3013,24 +3046,26 @@
         <v>3</v>
       </c>
       <c r="E10" s="35">
-        <f t="shared" ref="E10:E16" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <f t="shared" ref="E10:E15" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>240</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>1</v>
@@ -3045,14 +3080,14 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -3068,15 +3103,15 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>1</v>
@@ -3085,28 +3120,30 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="36" t="s">
+        <v>142</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="5" t="s">
@@ -3114,22 +3151,22 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="35">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="5" t="s">
@@ -3137,51 +3174,49 @@
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="35">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F16" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="31">
+        <v>120</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="36"/>
+        <v>140</v>
+      </c>
+      <c r="H16" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F14" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{B3199990-1CD6-4442-88CA-D202DBF258D9}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{F61C0487-609F-49A1-9F67-11A27607D374}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76392B5-BE4C-8F4A-B57C-99BFF07D651C}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3192,46 +3227,46 @@
       <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3257,7 +3292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3280,7 +3315,7 @@
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3303,7 +3338,7 @@
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3326,7 +3361,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3349,7 +3384,7 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3372,7 +3407,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3395,7 +3430,7 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3418,7 +3453,7 @@
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -3441,7 +3476,7 @@
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -3464,7 +3499,7 @@
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -3487,7 +3522,7 @@
       </c>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -3511,13 +3546,13 @@
       <c r="H19" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{8F4E28AF-8DF0-4869-AE13-38242159B7DA}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G19" xr:uid="{70A2B012-44E8-4240-811A-7A10310638DE}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3528,7 +3563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ADA136-893E-BA41-A2C5-5E590F24A697}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3539,46 +3574,46 @@
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3604,7 +3639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3627,7 +3662,7 @@
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3650,7 +3685,7 @@
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3673,7 +3708,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3696,7 +3731,7 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3719,7 +3754,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3742,7 +3777,7 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3765,7 +3800,7 @@
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -3788,7 +3823,7 @@
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -3811,7 +3846,7 @@
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -3835,13 +3870,13 @@
       <c r="H18" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G18" xr:uid="{914F4378-E613-DB4A-A4A0-606756B90FEC}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{EEAD8E0B-E1EF-4D85-8C71-47195B2AD9D2}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Week 2/SE1606_SWP391_OnlineShop_Backlog_W2.xlsx
+++ b/Week 2/SE1606_SWP391_OnlineShop_Backlog_W2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhvo\Desktop\SE1606_SWP391_OnlineShop_W2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4961A1-E5D3-4D12-B43B-5CCAEC8C7980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A13C005-D645-4BA3-9EE2-7063B25B575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="147">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>IT2 -&gt; IT1</t>
+  </si>
+  <si>
+    <t>HoangNVHE151236</t>
+  </si>
+  <si>
+    <t>ThachDPHE151521</t>
   </si>
 </sst>
 </file>
@@ -687,7 +693,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,6 +722,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -889,8 +901,10 @@
     <xf numFmtId="1" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2677,9 +2691,9 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2761,14 +2775,12 @@
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="31">
-        <v>60</v>
-      </c>
-      <c r="F9" s="37" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="36" t="s">
         <v>142</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>141</v>
@@ -2787,10 +2799,8 @@
       <c r="D10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="31">
-        <v>120</v>
-      </c>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="36" t="s">
         <v>142</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2811,9 +2821,7 @@
       <c r="D11" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="31">
-        <v>240</v>
-      </c>
+      <c r="E11" s="31"/>
       <c r="F11" s="29" t="s">
         <v>139</v>
       </c>
@@ -2835,10 +2843,10 @@
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="31">
-        <v>60</v>
-      </c>
-      <c r="F12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>29</v>
       </c>
@@ -2857,12 +2865,12 @@
       <c r="D13" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="31">
-        <v>120</v>
-      </c>
-      <c r="F13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -2879,12 +2887,12 @@
       <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="31">
-        <v>60</v>
-      </c>
-      <c r="F14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="G14" s="5" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -2892,7 +2900,7 @@
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -2901,15 +2909,12 @@
       <c r="D15" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="35">
-        <f t="shared" ref="E15" si="0">IF(D15="Complex", 240, IF(D15="Medium",120,60))</f>
-        <v>60</v>
-      </c>
+      <c r="E15" s="35"/>
       <c r="F15" s="29" t="s">
         <v>143</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>144</v>
@@ -2939,9 +2944,9 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3022,13 +3027,12 @@
       <c r="D9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="35">
-        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
-        <v>60</v>
-      </c>
-      <c r="F9" s="29"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="H9" s="29"/>
     </row>
@@ -3036,7 +3040,7 @@
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -3045,12 +3049,9 @@
       <c r="D10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="35">
-        <f t="shared" ref="E10:E15" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
-        <v>240</v>
-      </c>
+      <c r="E10" s="35"/>
       <c r="F10" s="29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>140</v>
@@ -3070,13 +3071,12 @@
       <c r="D11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="35">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="29"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="G11" s="5" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="H11" s="29"/>
     </row>
@@ -3093,13 +3093,12 @@
       <c r="D12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="35">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="29"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="H12" s="29"/>
     </row>
@@ -3116,15 +3115,12 @@
       <c r="D13" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="35">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+      <c r="E13" s="35"/>
       <c r="F13" s="36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="H13" s="29"/>
     </row>
@@ -3141,13 +3137,12 @@
       <c r="D14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="35">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F14" s="29"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36" t="s">
+        <v>146</v>
+      </c>
       <c r="G14" s="5" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="H14" s="29"/>
     </row>
@@ -3164,13 +3159,12 @@
       <c r="D15" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="35">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F15" s="29"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36" t="s">
+        <v>146</v>
+      </c>
       <c r="G15" s="5" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="H15" s="29"/>
     </row>
@@ -3187,14 +3181,12 @@
       <c r="D16" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="31">
-        <v>120</v>
-      </c>
+      <c r="E16" s="31"/>
       <c r="F16" s="29" t="s">
         <v>139</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H16" s="33"/>
     </row>
